--- a/商家資料填寫表格.xlsx
+++ b/商家資料填寫表格.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaihg\Documents\Dj-order-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EA084D-12DE-4F74-B006-DB8284686AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="672" windowWidth="23016" windowHeight="12288" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="商家資料表格" sheetId="1" r:id="rId1"/>
     <sheet name="品項" sheetId="6" r:id="rId2"/>
     <sheet name="口味" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
   <si>
     <t>商家基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,11 +337,35 @@
     <t>加飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Z000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試店家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0911-234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假地址1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假地址2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -465,6 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -744,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -768,17 +792,21 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>12</v>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,7 +816,9 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,7 +828,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
     </row>
@@ -806,7 +838,9 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
@@ -885,10 +919,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -1330,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">

--- a/商家資料填寫表格.xlsx
+++ b/商家資料填寫表格.xlsx
@@ -35,101 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
-  <si>
-    <t>商家基本資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
   <si>
     <t>商家名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>統一編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>負責人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電話</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>傳真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登記地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聯絡地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司網址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行動電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□菜單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>商店照片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□店家介紹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0911-234567</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,7 +273,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>假地址2</t>
+    <t>欄位名稱(英文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFF ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFF_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,14 +344,6 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -406,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -466,29 +413,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -769,149 +716,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="38.25" customWidth="1"/>
+    <col min="1" max="5" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B11:D11"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -934,24 +826,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -959,10 +851,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -970,10 +862,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -981,10 +873,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -992,10 +884,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -1003,10 +895,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1014,10 +906,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>65</v>
@@ -1025,10 +917,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>60</v>
@@ -1036,10 +928,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -1047,10 +939,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -1058,10 +950,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -1069,10 +961,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>60</v>
@@ -1080,10 +972,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -1091,10 +983,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>60</v>
@@ -1102,10 +994,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>65</v>
@@ -1113,10 +1005,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -1124,24 +1016,24 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>75</v>
@@ -1149,10 +1041,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>75</v>
@@ -1160,10 +1052,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -1171,10 +1063,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>80</v>
@@ -1182,10 +1074,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>65</v>
@@ -1193,10 +1085,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>70</v>
@@ -1204,10 +1096,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>70</v>
@@ -1215,10 +1107,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>80</v>
@@ -1226,10 +1118,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>80</v>
@@ -1237,10 +1129,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -1248,10 +1140,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>75</v>
@@ -1259,10 +1151,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>85</v>
@@ -1270,10 +1162,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>85</v>
@@ -1281,10 +1173,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>50</v>
@@ -1292,10 +1184,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>65</v>
@@ -1303,10 +1195,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>65</v>
@@ -1314,10 +1206,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>75</v>
@@ -1325,10 +1217,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>80</v>
@@ -1336,10 +1228,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>80</v>
@@ -1347,10 +1239,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>80</v>
@@ -1378,21 +1270,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1400,10 +1292,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1411,10 +1303,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1422,10 +1314,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1433,10 +1325,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1444,10 +1336,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1455,10 +1347,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1466,10 +1358,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1477,10 +1369,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1488,10 +1380,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1499,10 +1391,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1510,10 +1402,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1521,10 +1413,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1532,10 +1424,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1543,10 +1435,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1554,10 +1446,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1565,10 +1457,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1576,10 +1468,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1587,10 +1479,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1598,10 +1490,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1609,10 +1501,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1620,10 +1512,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1631,10 +1523,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1642,10 +1534,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1653,10 +1545,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1664,10 +1556,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1675,10 +1567,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1686,10 +1578,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1697,10 +1589,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -1708,10 +1600,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -1719,10 +1611,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -1730,10 +1622,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -1741,10 +1633,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -1752,10 +1644,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -1763,10 +1655,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -1774,10 +1666,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1785,10 +1677,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1796,10 +1688,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -1807,10 +1699,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>10</v>

--- a/商家資料填寫表格.xlsx
+++ b/商家資料填寫表格.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
   <si>
     <t>商家名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,30 @@
   </si>
   <si>
     <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜尋分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longlat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +368,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -353,7 +385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -422,11 +454,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -436,6 +479,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -716,18 +763,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -740,7 +787,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +800,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -766,7 +813,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -779,7 +826,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,7 +839,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -801,6 +848,30 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -818,13 +889,13 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -838,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -849,7 +920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -860,7 +931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -871,7 +942,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -882,7 +953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -893,7 +964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -904,7 +975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -915,7 +986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -926,7 +997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -937,7 +1008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -948,7 +1019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -959,7 +1030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -970,7 +1041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -981,7 +1052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1014,7 +1085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1039,7 +1110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1050,7 +1121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1061,7 +1132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1072,7 +1143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1083,7 +1154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1094,7 +1165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1116,7 +1187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1127,7 +1198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1138,7 +1209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1149,7 +1220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1160,7 +1231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1171,7 +1242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1182,7 +1253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1193,7 +1264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1204,7 +1275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1297,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1237,7 +1308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1263,12 +1334,12 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1290,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1301,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1312,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1323,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1334,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1345,7 +1416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1356,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1367,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1378,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1389,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1400,7 +1471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1411,7 +1482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1422,7 +1493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1433,7 +1504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1444,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1455,7 +1526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1466,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1477,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1488,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1499,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1510,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1521,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1532,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1543,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1554,7 +1625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1565,7 +1636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1576,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1587,7 +1658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1609,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1620,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1631,7 +1702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -1642,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1653,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1664,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1675,7 +1746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1686,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1697,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
